--- a/biology/Médecine/Chirurgie_au_laser/Chirurgie_au_laser.xlsx
+++ b/biology/Médecine/Chirurgie_au_laser/Chirurgie_au_laser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie au laser utilise un faisceau laser au lieu d'un bistouri pour modifier les tissus du corps humain. Cet outil chirurgical est utilisé dans de nombreuses spécialités chirurgicales.
-En ophtalmologie, on trouve par exemple des applications dans le cadre des opérations des yeux au laser[1] pour corriger la myopie, l'hypermétropie, l'astigmatisme ou encore la presbytie dans le cadre d'interventions de chirurgie réfractive.
-Selon les cas, le faisceau peut être utilisé pour vaporiser le tissu mou à teneur en eau élevée. La chirurgie au laser trouve son principal atout en comparaison de la chirurgie conventionnelle en évitant le contact physique, réduisant donc habituellement le risque d'infection[2]. 
+En ophtalmologie, on trouve par exemple des applications dans le cadre des opérations des yeux au laser pour corriger la myopie, l'hypermétropie, l'astigmatisme ou encore la presbytie dans le cadre d'interventions de chirurgie réfractive.
+Selon les cas, le faisceau peut être utilisé pour vaporiser le tissu mou à teneur en eau élevée. La chirurgie au laser trouve son principal atout en comparaison de la chirurgie conventionnelle en évitant le contact physique, réduisant donc habituellement le risque d'infection. 
 Les laser les plus courants incluent le dioxyde de carbone, l'argon, Nd:YAG et KTP.
 </t>
         </is>
